--- a/data/trans_camb/P43E_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P43E_R-Dificultad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.397259629159958</v>
+        <v>5.371898582065307</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.559273913211854</v>
+        <v>-1.703054874325342</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.57433383847776</v>
+        <v>12.3108809391309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.102759304403836</v>
+        <v>8.037934798676304</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06244257070972382</v>
+        <v>0.06260072719161008</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01791373262899239</v>
+        <v>-0.01997750329864841</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1555929549697329</v>
+        <v>0.15177911596282</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09915001919434455</v>
+        <v>0.09981962368170511</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>6.595026351622235</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.697824122548424</v>
+        <v>6.697824122548446</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.22959101881704</v>
+        <v>1.967906312336797</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.88115883546393</v>
+        <v>2.537502040864414</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.43378641958248</v>
+        <v>10.69402218838103</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.63301865958389</v>
+        <v>11.41601065022952</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.08485553759765159</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.08617819495346887</v>
+        <v>0.08617819495346916</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02829769714348918</v>
+        <v>0.02384870106454587</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02603682242284089</v>
+        <v>0.03156079597387866</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1522804192650455</v>
+        <v>0.1416548897897307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1424100825997252</v>
+        <v>0.1523725257141289</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.558245741828471</v>
+        <v>-1.655694625639241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.76773836070266</v>
+        <v>-4.970652468023009</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.638560528901726</v>
+        <v>9.496642943049736</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.184338751700788</v>
+        <v>5.229896633589551</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01990252926836549</v>
+        <v>-0.02136324854065837</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06116954300591702</v>
+        <v>-0.06431124486592216</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1342664376037712</v>
+        <v>0.1334442278784525</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07199140470617302</v>
+        <v>0.07230430979409036</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>7.1639265819747</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-3.003835898885088</v>
+        <v>-3.003835898885077</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6711772891207388</v>
+        <v>-0.3071905945034285</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.35370844993761</v>
+        <v>-10.06119588101618</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.64105982573542</v>
+        <v>15.01807732668674</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.235236947333462</v>
+        <v>4.546600059470114</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.1147284378715515</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.04810565775041482</v>
+        <v>-0.04810565775041464</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01144984388378142</v>
+        <v>-0.004464855150332219</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1544974277479014</v>
+        <v>-0.1493841780093446</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2779054402712718</v>
+        <v>0.2624734053806222</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07365440880591986</v>
+        <v>0.08167893698464668</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>6.682847608318998</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.574037740563872</v>
+        <v>-1.574037740563883</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.227762124518621</v>
+        <v>4.385433663074562</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.099661181181282</v>
+        <v>-3.944884478789924</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.360674338893514</v>
+        <v>9.280823372733348</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.18554752073519</v>
+        <v>1.027756794676345</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.08686313540962949</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.02045922059157336</v>
+        <v>-0.02045922059157351</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05524418443057531</v>
+        <v>0.05611290421597246</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0529873797689307</v>
+        <v>-0.05027120318658245</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1243766213600472</v>
+        <v>0.1236757740156243</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01575407662149025</v>
+        <v>0.01376230741977025</v>
       </c>
     </row>
     <row r="34">
